--- a/rufus/carriers/lifemap_science/order/prospec_zone.xlsx
+++ b/rufus/carriers/lifemap_science/order/prospec_zone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="9860" windowWidth="25040" windowHeight="8120" tabRatio="500"/>
+    <workbookView xWindow="-29940" yWindow="2420" windowWidth="25040" windowHeight="8120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="4_prospec_zone.csv" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,9 @@
     <t>in:country</t>
   </si>
   <si>
-    <t>out:price</t>
-  </si>
-  <si>
     <t>out:zone name</t>
   </si>
   <si>
-    <t>$(ProSpec)</t>
-  </si>
-  <si>
-    <t>${Zone 1}</t>
-  </si>
-  <si>
-    <t>${Zone 2}</t>
-  </si>
-  <si>
-    <t>${Zone 3}</t>
-  </si>
-  <si>
-    <t>${Zone 4}</t>
-  </si>
-  <si>
-    <t>${Zone 5}</t>
-  </si>
-  <si>
     <t>USA &amp; Western Europe</t>
   </si>
   <si>
@@ -79,6 +58,27 @@
   </si>
   <si>
     <t>$(US, DE, FR)</t>
+  </si>
+  <si>
+    <t>$(ProSpec) &lt;= $in</t>
+  </si>
+  <si>
+    <t>out:ProSpec price</t>
+  </si>
+  <si>
+    <t>${FedExZone 1}</t>
+  </si>
+  <si>
+    <t>${FedExZone 2}</t>
+  </si>
+  <si>
+    <t>${FedExZone 3}</t>
+  </si>
+  <si>
+    <t>${FedExZone 4}</t>
+  </si>
+  <si>
+    <t>${FedExZone 5}</t>
   </si>
 </sst>
 </file>
@@ -472,14 +472,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="4" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -491,80 +491,80 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
